--- a/biology/Zoologie/Anadenobolus_monilicornis/Anadenobolus_monilicornis.xlsx
+++ b/biology/Zoologie/Anadenobolus_monilicornis/Anadenobolus_monilicornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anadenobolus monilicornis est une espèce de mille-pattes diplopodes de la famille des Rhinocricidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce myriapode noir rayé de jaune peut mesurer de 2,5 à 10 centimètres de long[1]. Les pattes sont rouges.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce myriapode noir rayé de jaune peut mesurer de 2,5 à 10 centimètres de long. Les pattes sont rouges.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peuple la litière. On a observé des singes au zoo de Miami-Dade et des quiscales écraser de ces animaux sur leurs poils ou sous leurs ailes : les sécrétions de ces mille-pattes repoussent les insectes[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peuple la litière. On a observé des singes au zoo de Miami-Dade et des quiscales écraser de ces animaux sur leurs poils ou sous leurs ailes : les sécrétions de ces mille-pattes repoussent les insectes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire de la Caraïbe, on la trouve au Brésil, au Suriname, au Guyana, sur la Barbade, en Trinité-et-Tobago (Port-d'Espagne), sur Saint-Martin, en Martinique, en Guadeloupe, à Porto Rico et à Haïti (Grand Rivière, Cap-Haïtien)[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire de la Caraïbe, on la trouve au Brésil, au Suriname, au Guyana, sur la Barbade, en Trinité-et-Tobago (Port-d'Espagne), sur Saint-Martin, en Martinique, en Guadeloupe, à Porto Rico et à Haïti (Grand Rivière, Cap-Haïtien),.
 </t>
         </is>
       </c>
